--- a/cards/companies_types/companies_types.xlsx
+++ b/cards/companies_types/companies_types.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,331 +440,167 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>cty_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>cty_iden</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cty_code</t>
+          <t>cty_labe</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cty_iden</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cty_labe</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cf2757e9-b255-4c73-a919-f7a872ba655e</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Public Shareholding</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D2" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6fd854a8-e39e-4249-85d8-010a3ea632f3</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Private Shareholding Company</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D3" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>78241a6f-0922-45dc-965a-1aeea5f12f6d</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Limited Company</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D4" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1ed2b349-513c-4d48-aef9-0606bb9e2ce4</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Personal Company</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D5" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>d50334b4-b692-44ee-b53d-2d03f45ee11e</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Governmental Institutions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D6" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8a0357ed-4b3c-41e8-aa27-30e5103577f0</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Non-profitable association</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D7" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>06bad272-65a5-47a7-ac1b-049cbdf066cc</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>401</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>PROPRIETORSHIP</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D8" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8c77df47-a401-49d0-916f-c7d20927b17c</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="n">
         <v>1201</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Sole proprietorship</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D9" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>abb28ec1-9f08-4b8e-a217-b9d2383c29d8</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="n">
         <v>1000000</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Financial Institutions (Bank)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45511.29476472052</v>
+      <c r="D10" s="2" t="n">
+        <v>45511.29476472222</v>
       </c>
     </row>
   </sheetData>

--- a/cards/companies_types/companies_types.xlsx
+++ b/cards/companies_types/companies_types.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,167 +440,331 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>cty_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cty_iden</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cty_labe</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cf2757e9-b255-4c73-a919-f7a872ba655e</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Public Shareholding</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6fd854a8-e39e-4249-85d8-010a3ea632f3</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Private Shareholding Company</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78241a6f-0922-45dc-965a-1aeea5f12f6d</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Limited Company</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1ed2b349-513c-4d48-aef9-0606bb9e2ce4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Personal Company</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>d50334b4-b692-44ee-b53d-2d03f45ee11e</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Governmental Institutions</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8a0357ed-4b3c-41e8-aa27-30e5103577f0</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Non-profitable association</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06bad272-65a5-47a7-ac1b-049cbdf066cc</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>401</v>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>PROPRIETORSHIP</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8c77df47-a401-49d0-916f-c7d20927b17c</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>1201</v>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sole proprietorship</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>abb28ec1-9f08-4b8e-a217-b9d2383c29d8</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>1000000</v>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Financial Institutions (Bank)</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>45511.29476472222</v>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/COMPANIES_TYPES/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45511.29476472052</v>
       </c>
     </row>
   </sheetData>
